--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -2,28 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="feedback" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="faculty" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -55,14 +75,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,62 +448,823 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.109375" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="43.21875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="227.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="13.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="11" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="8.21875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="189.6640625" bestFit="1" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Branch</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Year_Semester</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Hall_Ticket</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Student_Name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Subject_Ratings</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Lab_Feedback</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Overall_Rating</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Suggestions</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Faculty_Selections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-16 06:41:36</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>I Year I Semester</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kjddnkd</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>kjsddnsk</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"LAC": 5, "BCME": 5, "CHEM": 5, "CP": 5, "ENG": 5}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"CP_LAB": {"explained": false, "executed": true, "records": false}, "BCME_LAB": {"explained": false, "executed": false, "records": false}, "ENG_LAB": {"explained": false, "executed": false, "records": false}, "CHEM_LAB": {"explained": false, "executed": false, "records": false}}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>teat1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{"LAC": "Dr.MD SHABANA SULTHANA(CHEC7006)", "BCME": "Dr.J.NARENDRA BABU(CHEC5050)", "CHEM": "Dr.MD SHABANA SULTHANA(CHEC7006)", "CP": "G NAVYA KRANTHI(CHEC5023)", "ENG": "S.MANI KUMAR(CHEC5012)"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-16 06:49:45</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>I Year I Semester</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kjddnkd11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>kjsddnsk</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"LAC": 3, "BCME": 3, "CHEM": 3, "CP": 3, "ENG": 3}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"CP_LAB": {"explained": false, "executed": true, "records": false}, "BCME_LAB": {"explained": false, "executed": false, "records": false}, "ENG_LAB": {"explained": false, "executed": false, "records": false}, "CHEM_LAB": {"explained": false, "executed": false, "records": false}}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>teat2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{"LAC": "Dr.MD SHABANA SULTHANA(CHEC7006)", "BCME": "T T RAJESWARA RAO(CHEC5019)", "CHEM": "G NAVYA KRANTHI(CHEC5023)", "CP": "T T RAJESWARA RAO(CHEC5019)", "ENG": "S.MANI KUMAR(CHEC5012)"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-16 06:51:25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>I Year I Semester</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kjddnkd12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>kjsddnsk2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"LAC": 3, "BCME": 3, "CHEM": 3, "CP": 3, "ENG": 3}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"CP_LAB": {"explained": false, "executed": true, "records": false}, "BCME_LAB": {"explained": false, "executed": false, "records": false}, "ENG_LAB": {"explained": false, "executed": false, "records": false}, "CHEM_LAB": {"explained": false, "executed": false, "records": false}}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>teat3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{"LAC": "Dr.MD SHABANA SULTHANA(CHEC7006)", "BCME": "T T RAJESWARA RAO(CHEC5019)", "CHEM": "G NAVYA KRANTHI(CHEC5023)", "CP": "T T RAJESWARA RAO(CHEC5019)", "ENG": "S.MANI KUMAR(CHEC5012)"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:20:13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I Year I Semester</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dkjdnkl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>okikjlm</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"LAC": 5, "BCME": 1, "CHEM": 4, "CP": 4, "ENG": 4}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"CP_LAB": {"explained": false, "executed": true, "records": false}, "BCME_LAB": {"explained": false, "executed": false, "records": false}, "ENG_LAB": {"explained": false, "executed": false, "records": false}, "CHEM_LAB": {"explained": false, "executed": false, "records": false}}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>kdskf</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{"LAC": "P LALITHA SOWJANAYA(CHEC7007)", "BCME": "P LALITHA SOWJANAYA(CHEC7007)", "CHEM": "P LALITHA SOWJANAYA(CHEC7007)", "CP": "P LALITHA SOWJANAYA(CHEC7007)", "ENG": "P LALITHA SOWJANAYA(CHEC7007)"}</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="37.33203125" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Faculty_Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Dec2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dr.MD SHABANA SULTHANA(CHEC7006)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P LALITHA SOWJANAYA(CHEC7007)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dr. A Raghavendra Rao(CHEC7020)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dr.J.NARENDRA BABU(CHEC5050)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>T T RAJESWARA RAO(CHEC5019)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>S.MANI KUMAR(CHEC5012)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>G NAVYA KRANTHI(CHEC5023)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>G MAHESWARA RAO(CHEC2003)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M VENKATA NARASAIAH(CHEC1001)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>K.VENKATA LAKSHMI(CHEC7002)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>G ANJALI DEVI(CHEC7021)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>T V Satyanarayana(CHEC7018)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>WD MILTON PONNALA(CHEC7048)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CH HARI BABU(CHEC2001)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>V RESH NAINA(CHEC4017)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>K MANOJ PAVAN KUMAR(CHEC4002)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dr.V DINESH BABU(CHEC5004)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dr.GADDIPATHI BHARATHI(CHEC5049)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B ANUSHA(CHEC5005)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D Sridhar(CHEC5014)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>M ANUSHA(CHEC5011)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>N NARESH(CHEC5010)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>G JAYASREE(CHEC5022)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>M AMBAREESH(CHEC5026)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>N.VIJAY GOPAL(CHEC5008)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BOLLA GOPINADH(CHEC5002)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>YUVANA LAGADAPATI(CHEC5029)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>I MANOJ KUMAR(CHEC5001)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Y S N B LALITHA SRI(CHEC5024)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>K ANITHA(CHEC5037)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AVUTHU PRUDHVU REDDY(CHEC5039)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>K.LAHARI(CHEC5041)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RAVI NAGA SRAVANI(CHEC5042)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>P SANTHI PRIYA(CHEC5044)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>THOTA VASAVI(CHEC5045)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SHAIK SHAKEELA(CHEC5046)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SHAIK SUFIYA(CHEC5047)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>G.SRAVANTHI(CHEC5052)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SHAIK KHAIRUNNISA BEGUM(CHEC5053)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SHAIK IRFAN BASHA(CHEC5016)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dr.KRISHNA MOHAN KAJA(CHEC4014)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>K A SIVA PRASAD(CHEC4011)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M VIGDEVISRI AMRUTHAVALI(CHEC4003)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>P.MAMATHA(CHEC4007)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SHAIK RESHMA(CHEC4012)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MAMILLAPALLI NAVYA(CHEC4013)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kothamasu Sravanthi(CHEC4015)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Y MALLIKA(CHEC4016)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KOGANTI SAI SRI CHANDANA(CHEC4024)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>RAVI PRASANTHI(CHEC7050)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>M SIVA NAGESWARA RAO(CHEC2008)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SK.LAL JOHN BASHA(CHEC3003)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B V SUBBAIAH(CHEC7003)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>M SIREESHA(CHEC7004)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>P ANJI BABU(CHEC7012)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B SRINIVASA RAO(CHEC7013)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CH RAMYA(CHEC7014)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>P SHAKUNTHALA(CHEC7047)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NAVEEN KUMAR TAMANAM(CHEC7049)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>